--- a/demodata.xlsx
+++ b/demodata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demir\ExcelDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF941F9E-D5CB-4809-8B94-0C750EBCA29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B247DC-AD0F-4232-A337-8766C6652197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37650" yWindow="5205" windowWidth="19425" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -404,11 +404,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -487,6 +485,7 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
